--- a/data/trans_bre/IP1020-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-37,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,32</t>
+          <t>-0,75; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,15</t>
+          <t>-1,04; 4,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,24</t>
+          <t>-2,38; 0,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,55</t>
+          <t>-3,09; 3,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,42; 480,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,83; 137,76</t>
+          <t>-88,48; 160,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 120,11</t>
+          <t>-60,3; 200,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-37,22%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,94</t>
+          <t>-0,85; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,21</t>
+          <t>-1,76; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,94</t>
+          <t>-2,27; 1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,79</t>
+          <t>-1,93; 2,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 480,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 160,25</t>
+          <t>-84,83; 137,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 200,58</t>
+          <t>-47,49; 120,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-60,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>171,54%</t>
+          <t>338,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>-35,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,59</t>
+          <t>-5,04; -0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,88</t>
+          <t>0,42; 6,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,9</t>
+          <t>-3,67; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,48</t>
+          <t>0,86; 8,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 887,77</t>
+          <t>-10,54; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-82,45; 311,01</t>
+          <t>-100,0; 467,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 209,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,22%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-24,89%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,94</t>
+          <t>-0,95; 1,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,21</t>
+          <t>-0,53; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,94</t>
+          <t>-1,86; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,79</t>
+          <t>-5,07; 2,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 480,72</t>
+          <t>-27,39; 406,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 160,25</t>
+          <t>-75,7; 288,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 200,58</t>
+          <t>-73,03; 89,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>-33,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-32,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>-20,06%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,32</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,15</t>
+          <t>-3,11; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,24</t>
+          <t>-2,67; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,55</t>
+          <t>-4,65; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 448,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-84,83; 137,76</t>
+          <t>-100,0; 722,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 120,11</t>
+          <t>-69,94; 105,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,83%</t>
+          <t>-24,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>62,04%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,78</t>
+          <t>-1,6; 1,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,48</t>
+          <t>-0,97; 1,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,6</t>
+          <t>-2,42; 1,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,98</t>
+          <t>-0,99; 3,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 158,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 292,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 61,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 74,51</t>
+          <t>-43,97; 350,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>84,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-22,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 0,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 2,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 0,53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 1,84</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-68,25; 124,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-10,25; 256,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-64,44; 49,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,14; 78,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP1020-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,56</t>
+          <t>-6,12; -1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,39</t>
+          <t>0,48; 6,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,68</t>
+          <t>-3,76; 1,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,89</t>
+          <t>0,86; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; —</t>
+          <t>-38,83; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 467,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,76</t>
+          <t>-0,95; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,82</t>
+          <t>-0,37; 4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,85</t>
+          <t>-1,88; 1,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,56</t>
+          <t>-5,1; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 406,05</t>
+          <t>-24,6; 404,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,7; 288,95</t>
+          <t>-74,43; 276,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 89,85</t>
+          <t>-72,84; 85,31</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,56</t>
+          <t>-3,19; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,54</t>
+          <t>-2,99; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,83</t>
+          <t>-4,97; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 448,39</t>
+          <t>-100,0; 415,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 722,17</t>
+          <t>-100,0; 331,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 105,42</t>
+          <t>-73,79; 90,95</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,1</t>
+          <t>-1,47; 1,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,81</t>
+          <t>-0,99; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,36</t>
+          <t>-2,67; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,91</t>
+          <t>-1,14; 3,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 350,45</t>
+          <t>-44,52; 431,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,68</t>
+          <t>-0,87; 0,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,46</t>
+          <t>0,13; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,53</t>
+          <t>-1,45; 0,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,84</t>
+          <t>-1,67; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 124,9</t>
+          <t>-69,62; 153,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 256,29</t>
+          <t>3,0; 260,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 49,06</t>
+          <t>-66,1; 54,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 78,34</t>
+          <t>-38,18; 74,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -1,07</t>
+          <t>-5,08; -0,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 6,44</t>
+          <t>0,49; 7,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,41</t>
+          <t>-3,8; 1,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,24</t>
+          <t>0,82; 8,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,83; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>-24,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,73</t>
+          <t>-0,98; 1,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,51</t>
+          <t>-0,35; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,69</t>
+          <t>-2,09; 1,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,3</t>
+          <t>-4,25; 2,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 404,01</t>
+          <t>-23,2; 430,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 276,67</t>
+          <t>-81,56; 275,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 85,31</t>
+          <t>-68,49; 119,41</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,13</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,48</t>
+          <t>-3,06; 1,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,22</t>
+          <t>-2,69; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,76</t>
+          <t>-4,44; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 415,39</t>
+          <t>-100,0; 577,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 331,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 90,95</t>
+          <t>-67,34; 125,05</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,04%</t>
+          <t>56,13%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,49</t>
+          <t>-1,49; 1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,5</t>
+          <t>-0,9; 1,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,43</t>
+          <t>-2,38; 1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,87</t>
+          <t>-1,12; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 560,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 431,32</t>
+          <t>-46,32; 379,21</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,62</t>
+          <t>-0,89; 0,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,44</t>
+          <t>0,1; 2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,55</t>
+          <t>-1,34; 0,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,99</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-69,62; 153,95</t>
+          <t>-72,25; 158,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 260,88</t>
+          <t>2,58; 292,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 54,97</t>
+          <t>-62,44; 61,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 74,37</t>
+          <t>-36,46; 76,63</t>
         </is>
       </c>
     </row>
